--- a/ITMO/homeworks/sims/attemt2/data mg.xlsx
+++ b/ITMO/homeworks/sims/attemt2/data mg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysikova.dv\Documents\GitHub\Python_tasks_algorithm\ITMO\homeworks\sims\attemt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A766BE94-5D96-4700-8D28-04C4538CAD45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F101FFA-BC9A-468D-B8D1-CAAD22D96C25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="12540" windowHeight="8124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -387,15 +387,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
@@ -9454,7 +9457,7 @@
         <v>17.843</v>
       </c>
       <c r="P302" s="4" t="e">
-        <f t="shared" ref="P259:P302" si="5">C303/I303</f>
+        <f t="shared" ref="P302" si="5">C303/I303</f>
         <v>#DIV/0!</v>
       </c>
     </row>
